--- a/finetuning/it_datasets/qa_dataset/qa_it_gafsa_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_gafsa_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,14 +664,73 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out CAFE'IN located at CQJ5+8FG CAFE'IN, Gafsa. 
-This top-rated destination is perfect for kfyh lovers and offers a range of kfyh to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7024237, 10.2398348. For more details, visit their website at https://www.google.com/maps/place/CAF%C3%89'IN/@34.4308171,8.7586885,17z/data=!3m1!4b1!4m6!3m5!1s0x12f897002648124b:0x59d87c72744cdef9!8m2!3d34.4308171!4d8.7586885!16s%2Fg%2F11vrxvwz_3?authuser=0&amp;entry=ttu.</t>
+          <t>CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a range of kfyh options in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the historical Dar Loungou, a popular tourist attraction known for its historical significance.
+Mid-Morning: Visit Musee archeologique de Gafsa, an archaeological museum that showcases the region's rich cultural heritage.
+Midday: Indulge in a delightful lunch at Desparados, a highly rated restaurant serving delectable dishes.
+Afternoon: Take a leisurely walk around Lac de Gafsa, a picturesque lake that offers stunning views and opportunities for relaxation.
+Evening: Experience the vibrant atmosphere at Dream Parc, a 5-star cafe and grill restaurant offering a cozy ambiance and delicious food.
+Night: Enjoy a memorable dinner at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", a 5-star rated Tunisian restaurant specializing in authentic local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -772,12 +836,72 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Cafe Marrakech located at Cafe Marrakech a cote d'Usine de marbre Hamid Derbali La route de Gafsa, 2113. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: (34.3114341, 8.4216957). For more details, visit their website at https://www.google.com/maps/place/Cafe+Marrakech/data=!4m7!3m6!1s0x12f87d7dc097cc33:0xb4027ee6fe7fd069!8m2!3d34.3132143!4d8.4229105!16s%2Fg%2F11fpmqb2g5!19sChIJM8yXwH19-BIRadB__uZ-ArQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 651 410.</t>
+          <t>Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of Cafe in Gafsa, offering a 5.0 rating on a well-known review platform?</t>
+          <t>Day Plan:
+Morning: Explore the Musée archéologique de Gafsa to discover the rich history of the region.
+Mid-Morning: Visit the nearby Le Bassin Romain, a historical site that provides a glimpse into Gafsa's past.
+Midday: Try local cuisine at Oj snacks, a highly-rated restaurant offering a 5-star dining experience.
+Afternoon: Engage in outdoor activities at Lac de Gafsa, a beautiful lake perfect for swimming, fishing, and boating.
+Evening: Enjoy scenic views at Montagne El Mida, a mountain peak that offers breathtaking vistas.
+Night: Experience cultural immersion at La Grande Mosquée de Gafsa, a stunning architectural landmark with intricate Islamic finishes.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Oj snacks** is a restaurant located in gafsa (34.3992622, 8.8151559) that offers a 5-star dining experience. It is open from 18:00 to 00:00 and is currently closed on no days.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -883,12 +1007,73 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you are in gafsa and searching for a good Hotel, check out dar seddik residence d artistes situated at oasis, Gafsa 2100. It has a rating of 4.7 and is one of the top-rated destinations for Hotel enthusiasts. With 35 reviews, it is a must-visit spot. Guests often mention "diner" and "chambre" in their reviews, indicating the high quality of food and accommodations. For more information, visit their website at https://www.facebook.com/mounir.letaief.5 or contact them at 21 171 717.</t>
+          <t>Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>If you're seeking a highly acclaimed hotel in Gafsa, providing exceptional dining and accommodations, what is the name and location of this top-rated destination?</t>
+          <t>Day Plan:
+Morning: Explore **Lac de Gafsa** for its picturesque beauty and engage in activities like swimming or fishing.
+Mid-Morning: Visit the **Musee archeologique de Gafsa** to delve into the region's rich history and admire the collection of ancient mosaics.
+Midday: Savor local Tunisian cuisine at "**mTbq@ qfSy@ `lmy@ `nd `m lnjy**," renowned for its delicious traditional dishes.
+Afternoon: Explore the **Dar Seddik residence d'artistes** for its comfortable rooms, delectable dining options, and proximity to the city center.
+Evening: Enjoy a relaxing experience at the **Dream Parc** cafe and grill, known for its cozy atmosphere, delicious food, and friendly staff.
+Night: Experience the vibrant nightlife at **Club Bayech** with its great music, drinks, and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,12 +1179,72 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>In gafsa, dar seddik residence d artistes is a must-visit spot for Hotel enthusiasts, with a rating of 4.7. Located at oasis, Gafsa 2100, this top-rated destination offers a range of categories to choose from. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly-rated Hotel called Dar Seddik Residence d Artistes that offers multiple categories of accommodations and is easily accessible with GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the archaeological treasures at Musee archeologique de Gafsa.
+**Mid-Morning:** Visit the historical site of Dar Loungou for a glimpse into Gafsa's rich past.
+**Midday:** Relish the local flavors at Pizzeria tozriana, renowned for its exceptional dining experience.
+**Afternoon:** Take a guided tour of the scenic Lac de Gafsa, immersing yourself in its serene beauty and abundant wildlife.
+**Evening:** Indulge in a relaxing spa treatment at the luxurious dar seddik residence d artistes.
+**Night:** Experience the vibrant atmosphere of Club Bayech, a local bar offering a lively ambiance and great music.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria tozriana is a highly rated restaurant located in gafsa (coordinates: (34.4159879, 8.7920119)). It offers a great dining experience with a 5.0 rating and positive reviews. The restaurant is open from 08:00-00:00 and is closed on .
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1342,73 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Dar kaabachi. Located at 1, Dar kaabachi, Zarroug amel, Gafsa, this top-rated destination is perfect for Villa lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+kaabachi/data=!4m10!3m9!1s0x12f8972944827195:0xbe5cc8fc2ca45627!5m2!4m1!1i2!8m2!3d34.4311167!4d8.7756718!16s%2Fg%2F11t814bvnl!19sChIJlXGCRCmX-BIRJ1akLPzIXL4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Villa in Gafsa that's perfect for a memorable visit?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Gafsa, a picturesque lake with serene beauty and opportunities for nature enthusiasts.
+Mid-Morning: Visit the Musee archeologique de Gafsa to delve into the rich history of the region through ancient artifacts and exhibits.
+Midday: Try local cuisine at D'ma9+, a highly-rated restaurant offering a delectable culinary experience in the heart of Gafsa.
+Afternoon: Enjoy the scenic views and hiking trails of Montagne El Mida, a popular destination for nature lovers.
+Evening: Immerse yourself in the cultural significance of La Grande Mosquée de Gafsa, renowned for its traditional Islamic architecture and intricate details.
+Night: Relax and socialize at Club Bayech, a bar with a cozy atmosphere and a great rating among locals.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1514,72 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a great place to stay, check out dar seddik residence d artistes located at oasis, Gafsa 2100. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel destination with a diverse selection of accommodations, ideal for hotel enthusiasts, located in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the Lac de Gafsa (Beautiful lake offering swimming, fishing, and boating activities)
+Mid-Morning: Visit the Oasis de Gafsa (Popular agricultural place with various attractions)
+Midday: Try local cuisine at "Lblby wld bd@" (Highly-rated restaurant with delectable cuisine)
+Afternoon: Enjoy scenic views at the Montagne El Mida (Mountain peak with stunning views)
+Evening: Engage in outdoor activities like hiking at the Montagne El Mida
+Night: Relax with a movie at Dream Parc (5-star cafe and grill restaurant with a cozy atmosphere)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Lblby wld bd@** is a highly-rated restaurant located in Gafsa, Tunisia. It boasts a 5.0-star rating based on 4 reviews and is known for its delectable cuisine and warm ambiance. The restaurant is open from 3 PM to 1 AM daily, making it a great spot for both lunch and dinner. Its convenient location at (34.4159879, 8.7920119) makes it easily accessible to locals and tourists alike.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1685,73 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a place to stay, check out dar seddik residence d artistes located at oasis, Gafsa 2100. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.7) hotel residence in Gafsa that caters to Hotel enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic Le Bassin Romain, an ancient Roman ruin offering a glimpse into the past.
+**Mid-Morning:** Visit the Musee archeologique de Gafsa, an archaeological museum showcasing the region's rich cultural heritage.
+**Midday:** Indulge in a delightful lunch at Barbecue GAFSA, renowned for its grilled meats and rice dishes.
+**Afternoon:** Take a leisurely stroll through the Oasis de Gafsa, an agricultural haven with scenic attractions.
+**Evening:** Experience traditional Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated Tunisian restaurant.
+**Night:** Head to Dream Parc, a cozy cafe and grill, for a relaxing and enjoyable dinner with a vibrant ambiance.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1430,14 +1857,79 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dar seddik residence d artistes located at oasis, Gafsa 2100. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://www.facebook.com/mounir.letaief.5 or call them at 21 171 717.</t>
+          <t>Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Hotel destination with a range of options, located in Gafsa and known for its unique experiences?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic **Dar Loungou**, a glimpse into Gafsa's rich past.
+**Mid-Morning:**
+* Visit the **Musee archeologique de Gafsa**, showcasing the region's ancient history and artifacts.
+**Midday:**
+* Savor a delicious lunch at **Spicy Burger**, renowned for its high-quality burgers.
+**Afternoon:**
+* Enjoy a scenic walk or engage in hiking at **Montagne El Mida**, offering breathtaking views.
+**Evening:**
+* Relax and unwind at **Oasis de Gafsa**, an agricultural oasis known for its beauty and serenity.
+**Night:**
+* Experience the lively atmosphere of **Dream Parc**, a 5-star cafe and grill restaurant with a cozy ambiance and delectable cuisine.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria tozriana is a highly rated restaurant located in gafsa (coordinates: (34.4159879, 8.7920119)). It offers a great dining experience with a 5.0 rating and positive reviews. The restaurant is open from 08:00-00:00 and is closed on .
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1535,12 +2027,72 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Lac de Gafsa located at Lac de Gafsa. This top-rated destination is perfect for Lac lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.5, 9.0. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Gafsa/data=!4m7!3m6!1s0x12f888f6e803791d:0xc101db39ef8e6c14!8m2!3d34.4174!4d8.5323!16s%2Fm%2F011jqfdt!19sChIJHXkD6PaI-BIRFGyO7znbAcE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for Lac enthusiasts located in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Lac de Gafsa, admiring its breathtaking views and enjoying the tranquility of nature.
+Mid-Morning: Visit the Musée archéologique de Gafsa, immersing in the rich history and culture of the region through its captivating exhibits and artifacts.
+Midday: Savor the delectable local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", indulging in the authentic flavors and culinary traditions of Tunisia.
+Afternoon: Engage in outdoor activities at the Oasis de Gafsa, taking in the serene atmosphere and exploring its natural beauty and attractions.
+Evening: Experience the vibrant atmosphere of Club Bayech, enjoying live music, delicious drinks, and connecting with the local community.
+Night: Relish a delightful dinner at Dream Parc, immersing in its cozy ambiance and indulging in its exquisite culinary creations.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1646,12 +2198,78 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dr lHwt located at CR53+545 dr lHwt, Gafsa. This top-rated destination is perfect for Marche aux poissons et fruits de mer lovers and offers a range of Marche aux poissons et fruits de mer to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100089697336396%26mibextid%3DZbWKwL or call them at 54 697 819.</t>
+          <t>Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated destination with a 5.0 rating, perfect for Marche aux poissons et fruits de mer lovers?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient ruins of **Le Bassin Romain** for a glimpse into Gafsa's past.
+**Mid-Morning:**
+- Visit the **Musee archeologique de Gafsa** to learn about Gafsa's rich history and culture.
+**Midday:**
+- Indulge in a delightful lunch at **Spicy Burger**, renowned for its mouthwatering burgers.
+**Afternoon:**
+- Enjoy an immersive cultural experience at **La Grande Mosquée de Gafsa**, an architectural masterpiece with stunning Islamic details.
+**Evening:**
+- Take a leisurely stroll through **Oasis de Gafsa**, a sprawling oasis with lush greenery and various attractions.
+**Night:**
+- Relish a captivating Tunisian dinner at **"mTbq@ qfSy@ `lmy@ `nd `m lnjy"**, a highly-rated restaurant serving authentic local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1753,14 +2371,72 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Le Bassin Romain located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Attraction touristique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 34.417313800591, 8.785810776674. For more details, visit their website at https://www.google.com/maps/place/Le+Bassin+Romain/data=!4m7!3m6!1s0x12f896fe76e06973:0x7b2f3ec9f81a6a89!8m2!3d34.4157034!4d8.7869275!16s%2Fg%2F11h0s2xfj!19sChIJc2ngdv6W-BIRiWoa-Mk-L3s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>What top-rated destination in Gafsa, renowned for its historical significance and catering to enthusiasts of historical sites, is open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the ancient history and culture of Gafsa at the Musee archeologique de Gafsa.
+Mid-Morning: Visit the beautiful Lac de Gafsa, where you can enjoy the serene beauty of the lake and engage in recreational activities like fishing or boating.
+Midday: Try the delicious Tunisian cuisine at the highly-rated restaurant "mTbq@ qfSy@ `lmy@ `nd `m lnjy", which offers a wide selection of traditional dishes.
+Afternoon: Take a guided tour of the historical Le Bassin Romain, which provides insights into Gafsa's past and architectural heritage.
+Evening: Immerse yourself in the vibrant atmosphere of Gafsa by exploring the local markets and shopping for souvenirs and local crafts.
+Night: Relax and unwind at Dream Parc, a charming cafe and grill restaurant, where you can enjoy a cozy ambiance, delicious food, and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1866,12 +2542,73 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a historical place to visit, check out Dar Loungou located at CQ8P+2W5 Dar Loungou, Gafsa. This top-rated destination is perfect for history lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-14:00, but closed on Saturday and Sunday. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+Loungou/data=!4m7!3m6!1s0x12f896fe0d7c66db:0x44d9cd4c0033949a!8m2!3d34.415023!4d8.7873456!16s%2Fg%2F11fy8_dsfv!19sChIJ22Z8Df6W-BIRmpQzAEzN2UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 710 906.</t>
+          <t>Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated historical destination with a 4.4 rating in Gafsa, offering a range of categories to explore?</t>
+          <t>Day Plan:
+Morning: Start your day with a visit to the Musée archéologique de Gafsa, to discover the rich historical heritage of the region.
+Mid-Morning: Explore the beautiful Oasis de Gafsa, known for its lush greenery and serene atmosphere. Take a leisurely stroll through the gardens, enjoy the scenic views, and unwind amidst the natural beauty.
+Midday: Indulge in a delightful lunch at the highly-rated restaurant, Desparados, known for its flavorful dishes and warm ambiance.
+Afternoon: Spend the afternoon taking a guided tour of the Le Bassin Romain, a well-preserved Roman site that offers a glimpse into the past. Admire the intricate ruins and learn about the significance of this historical landmark.
+Evening: Head to Dream Parc, a popular cafe and grill restaurant, to enjoy a delicious dinner in a cozy atmosphere. Relish the delectable cuisine while soaking in the vibrant ambiance of the place.
+Night: Experience the lively nightlife of Gafsa at Club Bayech, a bar with a great rating and a welcoming atmosphere. Enjoy live music, dance the night away, and socialize with the locals.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1973,12 +2710,72 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, La Grande Mosquee de Gafsa is a must-visit spot. This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from, including Attraction and Lieu historique. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4164729, 8.7864657. For more details, visit their website at https://www.google.com/maps/place/La+Grande+Mosqu%C3%A9e+de+Gafsa/data=!4m7!3m6!1s0x12f896fdd5845a0f:0x362e5cd353a1f600!8m2!3d34.4150807!4d8.7855187!16s%2Fg%2F11f006ggx_!19sChIJD1qE1f2W-BIRAPahU9NcLjY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 665 752.</t>
+          <t>La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>What highly-rated attraction in Gafsa is a must-visit for Mosquee enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historical significance of **Le Bassin Romain**.
+**Mid-Morning:** Visit the **Musée archéologique de Gafsa** to delve into the region's rich past.
+**Midday:** Indulge in authentic Tunisian cuisine at the highly-rated **"mTbq@ qfSy@ `lmy@ `nd `m lnjy"**.
+**Afternoon:** Relax and enjoy the serene ambiance of Lac de Gafsa, perfect for swimming and nature appreciation.
+**Evening:** Take a leisurely stroll through **l'oasis**, a pizzeria renowned for its culinary delights and picturesque location.
+**Night:** Experience the vibrant atmosphere of Dream Parc, a 5-star cafe and grill that offers a delightful dining experience and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Oj snacks** is a restaurant located in gafsa (34.3992622, 8.8151559) that offers a 5-star dining experience. It is open from 18:00 to 00:00 and is currently closed on no days.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2076,14 +2873,72 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. 
-This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website or call them at .</t>
+          <t>The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you discover a highly recommended destination (rated 4.3) that showcases a collection of archaeological artifacts?</t>
+          <t>Day Plan:
+Morning: Explore the captivating Musée archéologique de Gafsa, where you can delve into the rich history of the region through its impressive collection of artifacts.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated local restaurant known for its delectable dishes.
+Midday: Immerse yourself in the tranquility of Lac de Gafsa, a picturesque lake that offers stunning views and opportunities for serene relaxation and nature appreciation.
+Afternoon: Embark on a guided tour of the ancient Le Bassin Romain, a well-preserved Roman ruin that provides a glimpse into the region's fascinating past.
+Evening: As the sun sets, head to Dream Parc, a 5-star cafe and grill restaurant, where you can enjoy a delectable dinner while reveling in the lively ambiance and friendly service.
+Night: Conclude your day with a relaxing experience at Barbecue GAFSA, a highly-rated restaurant known for its flavorful grilled meats and rice dishes. Enjoy the delectable cuisine and soak up the convivial atmosphere to end your trip on a satisfying note.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Grillade de viande et de poisson is a restaurant located in Gafsa, Tunisia. It offers a variety of grilled meat and fish dishes. The restaurant is highly rated by customers, with a 5.0 rating on Google Maps. It is located at the coordinates (34.4159879, 8.7920119).
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2181,12 +3036,72 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. This top-rated destination is perfect for Musee archeologique lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4161756, 8.7865704.</t>
+          <t>Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated destination with a 4.3 rating, ideal for enthusiasts of Musee archeologique?</t>
+          <t>Day Plan:
+Morning: Explore the historical Dar Loungou for a glimpse into Gafsa's rich history.
+Mid-Morning: Visit the Musee archeologique de Gafsa to delve into the region's ancient past through its impressive collection of mosaics.
+Midday: Savor the local flavors at Restaurant Spicy Burger, renowned for its delectable burgers made with fresh, high-quality ingredients.
+Afternoon: Engage in outdoor activities at Oasis de Gafsa, enjoying the natural beauty of this popular agricultural spot with stunning views.
+Evening: Experience cultural immersion at la Grande Mosquée de Gafsa, admiring its traditional Islamic architecture and intricate details.
+Night: Immerse yourself in the bustling atmosphere of Cafe Marrakech, enjoying a delightful meal amidst friendly staff and a welcoming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2288,14 +3203,72 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a fascinating historical site, visit Le Bassin Romain on Avenue Habib Bourguiba. 
-This top-rated destination, with a 4.2 rating, is perfect for history enthusiasts and offers an intriguing glimpse into the region's past. With its convenient 24-hour availability, it's a must-visit spot. 
-To get there, use the GPS coordinates or visit their website for more details.</t>
+          <t>Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you explore a historical site with a top rating and convenient 24-hour access in Gafsa, Avenue Habib Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the Musée archéologique de Gafsa to delve into the rich history and cultural heritage of the region.
+Mid-Morning: Immerse in the vibrant atmosphere of La Grande Mosquée de Gafsa, marveling at its intricate Islamic architecture and spiritual significance.
+Midday: Treat your taste buds to the authentic flavors of Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", savoring the exquisite delicacies of the region.
+Afternoon: Escape into the serene embrace of Lac de Gafsa, soak in its picturesque beauty, and indulge in recreational activities like fishing or boating.
+Evening: Embark on a guided tour of Dar Loungou, a historical site that showcases the architectural prowess and cultural heritage of Gafsa.
+Night: Experience the lively ambiance of Dream Parc, a cafe and grill restaurant known for its delectable cuisine, cozy atmosphere, and warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Mia Cucina is an excellent restaurant in Gafsa, Tunisia. They offer a wide variety of dishes, all of which are prepared with fresh ingredients and cooked to perfection. The staff is friendly and attentive, and the atmosphere is warm and inviting. The restaurant itself is in a convenient location, making it easy to get to.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2393,12 +3366,79 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do in Lac, check out Lac de Gafsa located at Lac de Gafsa. This top-rated destination is perfect for Lac lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.5, 9.0. For more details, visit their website at https://www.google.com/maps/place/Lac+de+Gafsa/data=!4m7!3m6!1s0x12f888f6e803791d:0xc101db39ef8e6c14!8m2!3d34.4174!4d8.5323!16s%2Fm%2F011jqfdt!19sChIJHXkD6PaI-BIRFGyO7znbAcE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>What is the top-rated Lac destination in Gafsa, perfect for Lac enthusiasts and located at GPS coordinates 34.5, 9.0?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient ruins of Dar Loungou, a popular tourist attraction with a 4.4 rating.
+**Mid-Morning:**
+- Try local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", a 5-star rated Tunisian restaurant known for its delicious food.
+**Midday:**
+- Visit the Musée archéologique de Gafsa to discover the rich history and culture of the region.
+**Afternoon:**
+- Enjoy some recreational activities at Lac de Gafsa, a picturesque lake offering opportunities for fishing, boating, and wildlife watching.
+**Evening:**
+- Relax with a massage at the luxurious Dar Seddik Residence d'Artistes, an exclusive hotel with a serene ambiance.
+**Night:**
+- Participate in a traditional music and dance performance at La Grande Mosquée de Gafsa, a historic landmark and a vibrant center of local culture.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2504,12 +3544,72 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Dar Loungou located at CQ8P+2W5 Dar Loungou, Gafsa. This top-rated destination is perfect for Lieu historique and Site historique lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:30-14:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Dar+Loungou/data=!4m7!3m6!1s0x12f896fe0d7c66db:0x44d9cd4c0033949a!8m2!3d34.415023!4d8.7873456!16s%2Fg%2F11fy8_dsfv!19sChIJ22Z8Df6W-BIRmpQzAEzN2UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 710 906.</t>
+          <t>Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated historical site and landmark called Dar Loungou, perfect for history buffs in Gafsa?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Le Bassin Romain, a glimpse into Gafsa's rich past.
+Mid-Morning: Visiting the Musée archéologique de Gafsa, where fascinating exhibits showcase the region's cultural heritage.
+Midday: Trying local cuisine at Barbecue GAFSA, known for its delectable grilled meats and rice dishes.
+Afternoon: Enjoying scenic views at Lac de Gafsa, with crystal-clear waters and abundant wildlife.
+Evening: Experiencing cultural immersion at La Grande Mosquée de Gafsa, a beautiful place of worship and a testament to traditional Islamic architecture.
+Night: Relaxing with a soothing hammam experience at a local spa, rejuvenating for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2607,12 +3707,72 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Musee archeologique de Gafsa located at CQ8P+CR9 Musee archeologique de Gafsa, Gafsa. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee archeologique to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4161756, 8.7865704. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+arch%C3%A9ologique+de+Gafsa/data=!4m7!3m6!1s0x12f896fe7a4a6409:0x66552fb34ab06073!8m2!3d34.4160292!4d8.7871081!16s%2Fm%2F05b4y21!19sChIJCWRKev6W-BIRc2CwSrMvVWY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for those who enjoy Musee archeologique in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the historic La Grande Mosquée de Gafsa, marveling at its intricate architecture and peaceful ambiance.
+Mid-Morning: Immerse yourself in the cultural heritage of Gafsa at Dar Loungou, a historical site that showcases the region's rich past.
+Midday: Indulge in a delectable lunch at Restaurant Kerrou, renowned for its exceptional cuisine and warm hospitality.
+Afternoon: Escape to the serene Lac de Gafsa, where you can enjoy a refreshing swim, engage in fishing, or simply relax amidst the picturesque natural beauty.
+Evening: Experience the vibrant local atmosphere at Dream Parc, a charming cafe and grill offering a cozy ambiance, delicious food, and friendly service.
+Night: Take a leisurely stroll through the Oasis de Gafsa, admiring the lush greenery and enjoying the tranquil surroundings before retiring for the night.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2710,12 +3870,78 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Oasis de Gafsa located at Oasis de Gafsa. This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 9.9329491, 78.1344816.</t>
+          <t>Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly-rated destination that showcases agricultural activities for nature enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the **Musée archéologique de Gafsa** to immerse yourself in the region's rich history.
+**Mid-Morning:**
+* Visit **Lac de Gafsa** and engage in outdoor activities such as swimming, fishing, or boating.
+**Midday:**
+* Try local cuisine at the highly-rated **Fricasse/Metabga chez Ibrahim Bendhaher**.
+**Afternoon:**
+* Enjoy scenic views at the **Oasis de Gafsa**.
+**Evening:**
+* Visit the **Grande Mosquée de Gafsa** to experience its architectural beauty and cultural significance.
+**Night:**
+* Head to **Dream Parc** for a pleasant dinner and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Lblby wld bd@** is a highly-rated restaurant located in Gafsa, Tunisia. It boasts a 5.0-star rating based on 4 reviews and is known for its delectable cuisine and warm ambiance. The restaurant is open from 3 PM to 1 AM daily, making it a great spot for both lunch and dinner. Its convenient location at (34.4159879, 8.7920119) makes it easily accessible to locals and tourists alike.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2813,12 +4039,73 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Montagne El Mida located at Montagne El Mida, Gafsa. This top-rated destination is perfect for Sommet montagneux lovers and offers a range of Sommet montagneux to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use coordinates (34.4159879, 8.7920119).</t>
+          <t>The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>What is the top-rated location in Gafsa for Sommet montagneux enthusiasts, located at specific coordinates with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Visit Le Bassin Romain, a well-preserved Roman ruin site, to explore its historical significance.
+Mid-Morning: Take a guided tour of Musee archeologique de Gafsa to delve into the rich history and cultural heritage of the region.
+Midday: Try local cuisine at Restaurant Kerrou, a highly-rated establishment known for its delectable culinary offerings.
+Afternoon: Explore Lac de Gafsa, a picturesque lake offering opportunities for fishing, boating, and wildlife watching.
+Evening: Enjoy a relaxing evening at Dream Parc, a 5-star cafe and grill restaurant, savoring delicious food and a cozy atmosphere.
+Night: Experience the vibrant nightlife at Club Bayech, a popular bar with a great ambiance and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2920,14 +4207,73 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Club Bayech located at CQ7V+8H6 Club Bayech, Gafsa. 
-This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at  or call them at 54 361 700.</t>
+          <t>Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated destination with a variety of bars, perfect for Bar lovers and boasts a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant La Grande Mosquée de Gafsa, immersing yourself in its intricate architecture and cultural significance.
+Mid-Morning: Indulge in local delicacies at the highly-rated "mTbq@ qfSy@ `lmy@ `nd `m lnjy", savoring authentic Tunisian flavors.
+Midday: Visit the Musée archéologique de Gafsa to delve into the region's rich history and admire its impressive collection of ancient mosaics.
+Afternoon: Escape to Lac de Gafsa, taking in the picturesque shoreline while enjoying nature's tranquility through boating, fishing, or wildlife watching.
+Evening: Experience the lively atmosphere of Club Bayech, engaging with locals and enjoying vibrant entertainment.
+Night: Unwind at Dream Parc, a cozy cafe and grill, savoring delicious food and enjoying the warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Mix Max+ is a restaurant situated in the city of Gafsa, Tunisia. It offers its customers a wide range of services, including a diverse menu and a friendly atmosphere. It is conveniently located at the coordinates (34.4159879, 8.7920119). With a rating of 4.1 and 18 positive reviews, Mix Max+ has established itself as a popular dining destination in the area.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3029,12 +4375,72 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Desparados located at CQH4+7C8 Desparados, Unnamed Road. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Gafsa that caters to Restaurant enthusiasts, with a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the historical Le Bassin Romain.
+Mid-Morning: Try the flavorful Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy" restaurant for an authentic dining experience.
+Midday: Visit Dar Seddik Residence d'Artistes, an exclusive hotel with a serene and refined ambiance, for a relaxing break.
+Afternoon: Stroll through the vibrant Oasis de Gafsa, known for its scenic beauty and agricultural significance.
+Evening: Indulge in a delightful dinner at RESTO SOLAS, a highly-rated restaurant offering a diverse menu.
+Night: Unwind at Dream Parc, a charming cafe and grill with a cozy atmosphere and friendly service, for a perfect end to the day.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3140,12 +4546,74 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Pizzeria, check out TOMATO located at CQ9R+CH7 TOMATO, Ctre, Gafsa. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-21:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/TOMATO/data=!4m7!3m6!1s0x12f896ff4e33c269:0x16a8bef22111e6b0!8m2!3d34.4185381!4d8.7914228!16s%2Fg%2F11c2qls56b!19sChIJacIzTv-W-BIRsOYRIfK-qBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 429 319.</t>
+          <t>**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly rated Pizzeria called TOMATO, known for its exceptional cuisine?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Gafsa, taking in its picturesque beauty and engaging in activities like swimming, fishing, or boating.
+Mid-Morning: Visit the nearby Musee archeologique de Gafsa, delving into the region's rich history and admiring its collection of ancient artifacts and mosaics.
+Midday: Satisfy your appetite at Desparados, a highly-rated restaurant serving delectable local cuisine.
+Afternoon: Take a refreshing swim at Barbecue GAFSA, savoring its grilled meats and rice dishes while enjoying the outdoor ambiance.
+Evening: Head to TOMATO Pizzeria, known for its delicious pizzas, to experience a cozy and flavorful dining experience.
+Night: Embark on a guided tour of Le Bassin Romain, uncovering the historical significance and beauty of this ancient site.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3251,12 +4719,73 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a great restaurant, check out Mix Max +, located at CQGM+6HV in Gafsa. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/Mix-Max-1196930583793404 or call them at 95 538 720.</t>
+          <t>Mix Max+ is a restaurant situated in the city of Gafsa, Tunisia. It offers its customers a wide range of services, including a diverse menu and a friendly atmosphere. It is conveniently located at the coordinates (34.4159879, 8.7920119). With a rating of 4.1 and 18 positive reviews, Mix Max+ has established itself as a popular dining destination in the area.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a diverse menu in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the historical Dar Loungou to glimpse Gafsa's rich past.
+Mid-Morning: Visit the Lac de Gafsa, a pristine lake offering scenic views and opportunities for swimming or boating.
+Midday: Savor the local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated Tunisian restaurant.
+Afternoon: Get some retail therapy at the vibrant market of Fricasse/Metabga chez Ibrahim Bendhaher.
+Evening: Relax and unwind at Dream Parc, a cozy cafe and grill offering a warm ambiance and delicious food options.
+Night: Experience the vibrant nightlife at Club Bayech, known for its lively atmosphere and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3366,12 +4895,78 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out RESTO SOLAS located at CQCQ+CFC RESTO SOLAS, Gafsa 2100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:30, but closed on dimanche. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D100074120465587%26tsid%3D0.8582983252328997%26source%3Dresult or call them at 95 296 832.</t>
+          <t>RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated restaurant with a 5.0 rating that is open most days except for Sundays?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the oasis of Lac de Gafsa, marveling at its crystal-clear waters and enjoying the serene beauty.
+**Mid-Morning:**
+* Visit the Musee archeologique de Gafsa to delve into the region's rich history through its collection of artifacts and exhibits.
+**Midday:**
+* Savory lunch at Barbecue GAFSA, indulging in delectable grilled meats and rice dishes.
+**Afternoon:**
+* Take a guided tour of Dar Loungou, gaining insights into the historical significance of this ancient site.
+**Evening:**
+* Enjoy a cultural immersion at La Grande Mosquée de Gafsa, admiring its traditional Islamic architecture and religious significance.
+**Night:**
+* Relax and rejuvenate at Dream Parc, savoring delicious food and cozy ambiance while enjoying live entertainment or music.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3477,12 +5072,73 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Minima Coffee Shop located at CQCV+2F4 Minima Coffee Shop, pres de Pharmacie Gharbia Doualy, Gafsa. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Minima+Coffee+Shop/data=!4m7!3m6!1s0x12f896566b30e0c3:0xcebee18e06ab5892!8m2!3d34.4200126!4d8.7936876!16s%2Fg%2F11hd7dw3l0!19sChIJw-Awa1aW-BIRklirBo7hvs4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 334 013.</t>
+          <t>Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe spot recommended for its ambiance and dining options in Gafsa?</t>
+          <t>Day Plan:
+Morning: Visit the Musée archéologique de Gafsa to explore the region's rich history through mosaics, sculptures, and pottery.
+Mid-Morning: Head to Minima Coffee Shop for a caffeine fix and a delightful pastry.
+Midday: Indulge in a delicious lunch at RESTO SOLAS, known for its variety of dishes and excellent ratings.
+Afternoon: Explore the serene beauty of Lac de Gafsa, enjoy a leisurely stroll along its picturesque shoreline, and engage in activities like fishing or boating.
+Evening: Experience traditional Tunisian cuisine at the highly-rated "mTbq@ qfSy@ `lmy@ `nd `m lnjy" restaurant.
+Night: Head to Dream Parc for a delightful dinner in a cozy atmosphere, savoring their delicious food and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3588,12 +5244,72 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Fricasse HAMMA located at CQCP+WR6 Fricasse HAMMA, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Fricass%C3%A9+HAMMA/data=!4m7!3m6!1s0x12f896f98391c907:0xf76fc9aebcdc6de9!8m2!3d34.4222797!4d8.7870255!16s%2Fg%2F11gbf9gqkm!19sChIJB8mRg_mW-BIR6W3cvK7Jb_c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 153 940.</t>
+          <t>Fricasse HAMMA is a restaurant located in Gafsa, Tunisia. It offers a variety of dishes, and is open from 7am to 8pm. The restaurant has a rating of 4.3 out of 5 stars, and is located at the coordinates (34.4159879, 8.7920119).</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you enjoy highly-rated Restaurant options with a 4.3 rating at a popular dining establishment?</t>
+          <t>Day Plan:
+Morning: Explore the historical Le Bassin Romain, a well-preserved Roman ruin that offers a glimpse into the past.
+Mid-Morning: Visit the Musée archéologique de Gafsa to learn about the region's rich history and cultural heritage through its collection of ancient artifacts.
+Midday: Indulge in a delicious local meal at Desparados, a highly-rated restaurant known for its delectable cuisine.
+Afternoon: Stroll through the Oasis de Gafsa, a picturesque agricultural place offering a tranquil escape and a variety of attractions.
+Evening: Immerse yourself in the cultural richness of La Grande Mosquée de Gafsa, an impressive historical site showcasing traditional Islamic architecture.
+Night: Enjoy a delightful dinner at Dream Parc, a 5-star cafe and grill restaurant with a cozy atmosphere and a wide range of culinary offerings.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3699,12 +5415,79 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Mia Cucina located at CQ9R+64R Mia Cucina, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on ['dimanche']. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Mia+Cucina/data=!4m7!3m6!1s0x12f896ff3b848959:0xbd93142204fa2d78!8m2!3d34.4181148!4d8.7902755!16s%2Fg%2F11csp866wx!19sChIJWYmEO_-W-BIReC36BCIUk70?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 252 005.</t>
+          <t>Mia Cucina is an excellent restaurant in Gafsa, Tunisia. They offer a wide variety of dishes, all of which are prepared with fresh ingredients and cooked to perfection. The staff is friendly and attentive, and the atmosphere is warm and inviting. The restaurant itself is in a convenient location, making it easy to get to.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination in Gafsa that offers a variety of dining options and boasts an impressive 4.5 rating?</t>
+          <t>Day Plan:
+Morning:
+* Explore the ancient Le Bassin Romain, a historical site with well-preserved Roman ruins.
+Mid-Morning:
+* Indulge in local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated Tunisian restaurant known for its authentic flavors.
+Midday:
+* Visit the Musée archéologique de Gafsa to admire artifacts and learn about the city's rich history and culture.
+Afternoon:
+* Engage in outdoor activities like hiking or mountain climbing at the Montagne El Mida for stunning views of the surrounding landscape.
+Evening:
+* Pamper yourself with a relaxing experience at Dar seddik residence d artistes, a charming hotel with a peaceful atmosphere.
+Night:
+* Savor a delightful dinner at Tomato Pizzeria, known for its delicious pizzas and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Mia Cucina is an excellent restaurant in Gafsa, Tunisia. They offer a wide variety of dishes, all of which are prepared with fresh ingredients and cooked to perfection. The staff is friendly and attentive, and the atmosphere is warm and inviting. The restaurant itself is in a convenient location, making it easy to get to.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3806,12 +5589,73 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in Gafsa and looking for a delicious crepe, head to SoCrunchy located at CQCH+R6X Unnamed Road. This top-rated Creperie offers a range of crepes to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. It's open during these hours: 08:00-22:00.</t>
+          <t>SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated creperie in Gafsa that is perfect for satisfying your crepe craving?</t>
+          <t>Day Plan:
+Morning: Exploring Lac de Gafsa
+Mid-Morning: Trying local cuisine at Barbecue GAFSA
+Midday: Visiting Le Bassin Romain
+Afternoon: Enjoying outdoor activities like hiking at Montagne El Mida
+Evening: Relaxing with a massage at a spa in Dar Seddik residence d'artistes
+Night: Experiencing cultural immersion at La Grande Mosquée de Gafsa</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3913,12 +5757,73 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a delicious burger, check out Spicy Burger located at CQCM+XV9. This top-rated restaurant is perfect for burger lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 20 108 481.</t>
+          <t>Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a popular burger spot with a 5.0 rating in Gafsa, and what makes it stand out from the rest?</t>
+          <t>Day Plan:
+Morning: Explore the Oasis de Gafsa, known for its scenic agricultural landscapes.
+Mid-Morning: Visit the Musée archéologique de Gafsa to delve into the region's rich history and cultural heritage.
+Midday: Savor the flavors of Gafsa at Fricasse/Metabga chez Ibrahim Bendhaher, highly rated for its breakfast options.
+Afternoon: Enjoy a relaxing stroll through Lac de Gafsa, admiring its serene beauty and indulging in fishing or boating activities.
+Evening: Indulge in a delightful dinner at Barbecue GAFSA, renowned for its grilled meats and rice dishes.
+Night: Experience the vibrant nightlife at Dream Parc, a cafe and grill offering a lively atmosphere and delicious cuisine.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Mia Cucina is an excellent restaurant in Gafsa, Tunisia. They offer a wide variety of dishes, all of which are prepared with fresh ingredients and cooked to perfection. The staff is friendly and attentive, and the atmosphere is warm and inviting. The restaurant itself is in a convenient location, making it easy to get to.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4024,12 +5929,78 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Pizzeria tozriana located at CQH4+G69 Pizzeria tozriana, Unnamed Road, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, or call them at 97 389 592.</t>
+          <t>Pizzeria tozriana is a highly rated restaurant located in gafsa (coordinates: (34.4159879, 8.7920119)). It offers a great dining experience with a 5.0 rating and positive reviews. The restaurant is open from 08:00-00:00 and is closed on .</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated Pizzeria (Pizzeria tozriana) that is perfect for Restaurant lovers with a 5.0 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Dar Loungou, a historical site offering a glimpse into Gafsa's rich history.
+**Mid-Morning:**
+* Visit the Musée archéologique de Gafsa, showcasing fascinating exhibits including mosaics, sculptures, and pottery.
+**Midday:**
+* Savor traditional Tunisian cuisine at the highly-rated "mTbq@ qfSy@ `lmy@ `nd `m lnjy," known for its delicious and authentic flavors.
+**Afternoon:**
+* Stroll through the picturesque Oasis de Gafsa, admiring its lush greenery and serene ambiance.
+**Evening:**
+* Indulge in a delightful dinner at Desparados, a popular restaurant offering a wide range of delectable dishes and a cozy atmosphere.
+**Night:**
+* Experience the lively nightlife at Club Bayech, a bar with a vibrant ambiance, great music, and a friendly crowd.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4139,12 +6110,72 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out lblby wld bd@ located at lblby wld bd@, Gafsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 15:00-01:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100091448336864%26mibextid%3DZbWKwL or call them at 29 235 009.</t>
+          <t>**Lblby wld bd@** is a highly-rated restaurant located in Gafsa, Tunisia. It boasts a 5.0-star rating based on 4 reviews and is known for its delectable cuisine and warm ambiance. The restaurant is open from 3 PM to 1 AM daily, making it a great spot for both lunch and dinner. Its convenient location at (34.4159879, 8.7920119) makes it easily accessible to locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant destination in Gafsa, perfect for restaurant lovers with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Lac de Gafsa
+Mid-Morning: Trying local cuisine at Spicy Burger
+Midday: Visiting the Musée archéologique de Gafsa
+Afternoon: Enjoying recreational activities at Dream Parc
+Evening: Relaxing with a massage at Dar Seddik Residence d'Artistes
+Night: Participating in a cultural immersion at La Grande Mosquée de Gafsa</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4254,12 +6285,73 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Barbecue GAFSA located at CPCW+7F rue tozeur, Gafsa 2100. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades, Restaurant de riz to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://bbq-mutton-barbecue-restaurant.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 56 012 657.</t>
+          <t>Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination for Restaurant de grillades lovers with GPS coordinates of 34.3134278, 8.4913002 in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the historical Dar Loungou, offering a glimpse into Gafsa's rich history.
+Mid-Morning: Visit the Musee archeologique de Gafsa, showcasing the region's ancient artifacts.
+Midday: Try the local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a 5-star rated Tunisian restaurant.
+Afternoon: Enjoy outdoor activities like hiking or nature walks at Lac de Gafsa, renowned for its serene beauty.
+Evening: Engage in cultural immersion at La Grande Mosquée de Gafsa, a stunning example of Islamic architecture.
+Night: Experience the vibrant atmosphere at Dream Parc, a 5-star cafe and grill restaurant, known for its delicious food and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4357,12 +6449,72 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Fricasse/Metabga chez Ibrahim Bendhaher located at CQCV+77M Fricasse/Metabga chez Ibrahim Bendhaher, Place Pasteur, Doualy, Gafsa. This top-rated destination is perfect for Restaurant servant le petit-dejeuner lovers and offers a range of Restaurant servant le petit-dejeuner to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 20 787 132.</t>
+          <t>Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find the highly-rated Fricasse/Metabga chez Ibrahim Bendhaher, renowned for its exceptional Restaurant servant le petit-dejeuner offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historical Dar Loungou for a glimpse into Gafsa's rich past.
+Mid-Morning: Indulge in local cuisine at the highly-rated pizzeria, l'oasis, savor its 5-star flavors.
+Midday: Visit the Musée archéologique de Gafsa to delve into the region's fascinating archaeological heritage.
+Afternoon: Embark on a peaceful stroll around Lac de Gafsa, soaking in its serene beauty and enjoying recreational activities like fishing or boating.
+Evening: Experience the lively atmosphere of Club Bayech, known for its great ambiance and enticing drinks.
+Night: Relish a memorable dining experience at Pizzeria Pasta Bella, savoring the delectable flavors of authentic Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4464,12 +6616,79 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out tarkina ltrkyn@ located at CQCQ+4FV tarkina ltrkyn@, Gafsa. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, call them at 58 870 767.</t>
+          <t>**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly-rated destination for Restauration rapide enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Lac de Gafsa, enjoy scenic views and engage in outdoor activities like boating or fishing.
+**Mid-Morning:**
+- Take a guided tour of the Musée archéologique de Gafsa to delve into the region's history and cultural heritage.
+**Midday:**
+- Try local cuisine at Barbecue GAFSA, highly rated for its grilled meats and rice dishes.
+**Afternoon:**
+- Visit the historical site of Dar Loungou to gain insights into the rich history of the region.
+**Evening:**
+- Relax at Dream Parc, a 5-star cafe and grill restaurant offering a cozy atmosphere, delicious food, and friendly staff.
+**Night:**
+- Experience cultural immersion by attending a traditional music performance at La Grande Mosquée de Gafsa.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4575,12 +6794,78 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out MaMa Pizza located at Avenue Palestine Gafsa Sud, 2100. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.428025289113, 8.782860983013. For more details, visit their website or call them at 54 410 216.</t>
+          <t>MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant (4.0) perfect for Restaurant lovers in gafsa?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical site of Le Bassin Romain, offering a glimpse into Gafsa's past.
+Mid-Morning:
+- Visit the nearby Musée Archéologique de Gafsa to learn about the region's rich history and cultural heritage.
+Midday:
+- Enjoy a traditional Tunisian lunch at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", known for its authentic cuisine.
+Afternoon:
+- Relax and unwind in the serene atmosphere of Oasis de Gafsa, a popular agricultural spot with beautiful surroundings.
+Evening:
+- Go shopping for souvenirs and local handicrafts at the bustling l'oasis market.
+Night:
+- Experience the vibrant nightlife at Club Bayech, a popular bar with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+RESTO SOLAS is a restaurant located in Gafsa, Tunisia, offering a variety of dishes. It has a 5.0 rating based on 14 reviews and is open from 09:00-21:30 on weekdays, but closed on Sundays. The restaurant's location is at coordinates (34.3134278, 8.4913002).
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4686,14 +6971,78 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a delicious meal, check out Bubble waffle located at CQMJ+6GQ. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:30-22:00, but closed on . To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at  or call them at 23 930 291.</t>
+          <t>Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can I find a highly rated restaurant with a wide selection of culinary options in Gafsa?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore the La Grande Mosquée de Gafsa:** Admire the traditional Islamic architecture and peaceful ambiance of this iconic mosque.
+**Mid-Morning:**
+* **Visit the Musée archéologique de Gafsa:** Delve into the rich history of Gafsa through its collection of ancient artifacts and exhibits.
+**Midday:**
+* **Dine at Barbecue GAFSA:** Savor delectable grilled meats and rice dishes at this highly-rated restaurant.
+**Afternoon:**
+* **Take a guided tour of Le Bassin Romain:** Explore the well-preserved Roman ruins, offering a glimpse into the city's past.
+**Evening:**
+* **Enjoy scenic views at Lac de Gafsa:** Relax and soak in the tranquility of this beautiful lake, perfect for fishing, boating, or wildlife watching.
+**Night:**
+* **Experience cultural immersion at Dar kaabachi:** Stay at this 5-star villa and immerse yourself in the local culture and hospitality of Gafsa.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4795,14 +7144,73 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Pizzeria pasta bella located at CQH4+Q4M Pizzeria pasta bella, Unnamed Road, Gafsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+pasta+bella/data=!4m7!3m6!1s0x12f897db687b3881:0xb9ff9761c7b0d48a!8m2!3d34.4294736!4d8.7552895!16s%2Fg%2F11h_vbddqs!19sChIJgTh7aNuX-BIRitSwx2GX_7k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 803 444.</t>
+          <t>Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant with GPS coordinates 34.4159879, 8.7920119 in Gafsa, known for its extensive Restaurant selection?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Lac de Gafsa, a picturesque lake offering stunning natural beauty and opportunities for outdoor activities like fishing and boating.
+Mid-Morning: Visit the Dar Loungou, a historical landmark showcasing Gafsa's rich cultural heritage and architectural marvels.
+Midday: Indulge in the delectable Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated restaurant renowned for its authentic flavors.
+Afternoon: Immerse yourself in the local culture at the Musee archeologique de Gafsa, an archaeological museum exhibiting artifacts and historical treasures that provide insights into the region's past.
+Evening: Experience the vibrant atmosphere of Dream Parc, a 5-star cafe and grill serving a wide range of dishes in a cozy setting.
+Night: Unwind and relax at the nearby TOMATO Pizzeria, known for its delicious pizzas and cozy ambiance, making it an ideal spot to end the day.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Lblby wld bd@** is a highly-rated restaurant located in Gafsa, Tunisia. It boasts a 5.0-star rating based on 4 reviews and is known for its delectable cuisine and warm ambiance. The restaurant is open from 3 PM to 1 AM daily, making it a great spot for both lunch and dinner. Its convenient location at (34.4159879, 8.7920119) makes it easily accessible to locals and tourists alike.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4908,12 +7316,73 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out D'ma9+ located at CQCR+QF6 D'ma9+, Gafsa. This top-rated Restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website or call them at 24 189 897.</t>
+          <t>Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>In Gafsa, where can you find an exceptional Restaurant with a perfect 5.0 rating and extended 24/7 hours, making it a must-visit destination for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Le Bassin Romain, a historical site in Gafsa.
+Mid-Morning: Try local cuisine at Barbecue GAFSA, specializing in grilled meats and rice dishes.
+Midday: Visit Oasis de Gafsa, an agricultural place with stunning natural beauty.
+Afternoon: Relax with a spa treatment at Dar Seddik Residence d'Artistes.
+Evening: Participate in a cultural immersion at La Grande Mosquée de Gafsa, a significant religious and historical landmark.
+Night: Experience the vibrant atmosphere at Dream Parc, a highly-rated cafe and grill restaurant.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5007,12 +7476,72 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a great place to eat, check out Restaurant Kerrou located at CQH6+8WX Restaurant Kerrou, P3, Gafsa. It's a top-rated destination for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a rating of 4.5 and GPS coordinates of 34.4159879, 8.7920119 in gafsa?</t>
+          <t>Day Plan:
+Morning: Explore the historical charm of Dar Loungou, a renowned historical site in Gafsa.
+Mid-Morning: Embark on a guided tour of the Musee archeologique de Gafsa, where you can delve into the region's rich history through its captivating collection of artifacts and exhibits.
+Midday: Indulge in the delectable flavors of Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", a 5-star establishment serving authentic local dishes.
+Afternoon: Immerse yourself in the beauty of Lac de Gafsa, a picturesque lake offering a tranquil setting for relaxation and serene activities like swimming, fishing, and boating.
+Evening: Elevate your dining experience at Spicy Burger, a popular restaurant renowned for its mouthwatering burgers crafted with fresh, premium ingredients.
+Night: Experience the vibrant nightlife at Dream Parc, a 5-star cafe and grill restaurant, where you can savor delicious food, enjoy a cozy atmosphere, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5110,13 +7639,79 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant, check out mT`m lkhym@ sydy bwzyd located at mT`m lkhym@ sydy bwzyd, Institut superieur des etudes technologiques de Gafsa, Tryq qfS@ mqbl. 
-This is a must-visit spot for Restaurant lovers with a rating of 5.0. To get there, use these GPS coordinates: 34.4302825, 8.7623937. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%AE%D9%8A%D9%85%D8%A9+%D8%B3%D9%8A%D8%AF%D9%8A+%D8%A8%D9%88%D8%B2%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x12f89706c348866f:0x9815c4bee93039f3!8m2!3d34.4298014!4d8.7623744!16s%2Fg%2F11frtdn369!19sChIJb4ZIwwaX-BIR8zkw6b7EFZg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 886 093.</t>
+          <t>mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What is the top-rated Restaurant in gafsa with GPS coordinates 34.4302825, 8.7623937?</t>
+          <t>Day Plan:
+Morning:
+- Try local cuisine at Restaurant Dream Parc
+Mid-Morning:
+- Explore Lac de Gafsa, a picturesque lake in the heart of Gafsa.
+Midday:
+- Visit Le Bassin Romain, a historical site that offers a glimpse into Gafsa's past.
+Afternoon:
+- Take a leisurely walk through Musee archeologique de Gafsa, discovering the region's rich history and cultural heritage.
+Evening:
+- Experience cultural immersion at Oasis de Gafsa, a popular agricultural place offering a variety of attractions.
+Night:
+- Enjoy a delicious dinner at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", a highly-rated Tunisian restaurant.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5218,12 +7813,73 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant tunisien, check out mTbq@ qfSy@ `lmy@ `nd `m lnjy located at CQFH+6PQ mTbq@ qfSy@ `lmy@ `nd `m lnjy, Gafsa. This popular destination offers a range of categories to choose from. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%A8%D9%82%D8%A9+%D9%82%D9%81%D8%B5%D9%8A%D8%A9+%D8%B9%D8%A7%D9%84%D9%85%D9%8A%D8%A9+%D8%B9%D9%86%D8%AF+%D8%B9%D9%85+%D8%A7%D9%84%D9%86%D8%A7%D8%AC%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12f897a7c4a1af3f:0xf1c4e40c6ac43c5f!8m2!3d34.4222866!4d8.7793068!16s%2Fg%2F11swthgdf7!19sChIJP6-hxKeX-BIRXzzEagzkxPE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Which Restaurant tunisien holds a 5.0 rating and is located at CQFH+6PQ mTbq@ qfSy@ `lmy@ `nd `m lnjy, Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore Le Bassin Romain, a historical site offering a glimpse into Gafsa's past.
+Mid-Morning: Visit the Musée archéologique de Gafsa to delve into the region's rich history through artifacts and exhibits.
+Midday: Try local cuisine at Fricasse/Metabga chez Ibrahim Bendhaher, known for its delicious breakfast options.
+Afternoon: Relax and rejuvenate with a massage or spa treatment at dar seddik residence d artistes, a charming hotel with a warm and hospitable atmosphere.
+Evening: Experience the lively ambiance and delicious food at Oj snacks, a highly-rated restaurant offering a 5-star dining experience.
+Night: Enjoy scenic views and cultural immersion at La Grande Mosquée de Gafsa, a stunning historical monument known for its architectural beauty and religious significance.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+**Oj snacks** is a restaurant located in gafsa (34.3992622, 8.8151559) that offers a 5-star dining experience. It is open from 18:00 to 00:00 and is currently closed on no days.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5329,12 +7985,73 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Oj snacks located at Oj snacks, P3, Gafsa 2151. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 18:00-00:00, but closed on none. To get there, use these GPS coordinates: 34.3992622, 8.8151559. For more details, visit their website at none or call them at 54 902 419.</t>
+          <t>**Oj snacks** is a restaurant located in gafsa (34.3992622, 8.8151559) that offers a 5-star dining experience. It is open from 18:00 to 00:00 and is currently closed on no days.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated dining experience with ample options in Gafsa, what restaurant located at Oj snacks, P3, Gafsa 2151 offers a 5.0 rating and caters to Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historical and cultural significance of Dar Loungou, a historical site offering insights into the region's rich past.
+Mid-Morning: Immerse yourself in the flavors of Gafsa by trying local cuisine at the highly-rated Fricasse/Metabga chez Ibrahim Bendhaher restaurant, known for its delicious breakfast offerings.
+Midday: Visit the Musee archeologique de Gafsa to delve into the archaeological treasures and cultural heritage of the region. Explore its collection of ancient artifacts and exhibits, gaining a deeper understanding of Gafsa's history.
+Afternoon: Head to the Lac de Gafsa, a picturesque lake offering a variety of activities. Enjoy swimming, fishing, or boating amidst the stunning natural surroundings.
+Evening: Experience Gafsa's vibrant culinary scene by dining at the highly-rated TOMATO Pizzeria. Savor their delectable pizzas and other offerings in a cozy and inviting ambiance.
+Night: For a relaxing evening, head to Dream Parc, a 5-star cafe and grill restaurant. Enjoy a delightful dinner while immersing yourself in the comfortable atmosphere and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5436,12 +8153,72 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out dream parc located at CPCW+7FM dream parc, rue tozeur. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/dream+parc/data=!4m7!3m6!1s0x12f8912b12f1a9a7:0x3f1e6ac9d7df477f!8m2!3d34.4207126!4d8.7461639!16s%2Fg%2F11dx95_fhz!19sChIJp6nxEiuR-BIRf0ff18lqHj8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination with Cafe et restaurant de grillades in Gafsa?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Gafsa, a serene lake offering fishing, boating, and wildlife watching.
+Mid-Morning: Visit the Musee archeologique de Gafsa to delve into the region's rich history and cultural heritage.
+Midday: Savor a delectable lunch at the highly-rated **mT`m lkhym@ sydy bwzyd**, renowned for its delicious cuisine and friendly service.
+Afternoon: Discover the historical significance of Dar Loungou, offering a glimpse into the region's past.
+Evening: Embark on a guided tour of La Grande Mosquee de Gafsa, renowned for its traditional Islamic architecture and intricate details.
+Night: Enjoy a memorable dinner at Spicy Burger, known for its delicious and high-quality burgers, followed by a relaxing retreat at the soothing Spa at Dar Seddik Residence d'Artistes.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Musee archeologique de Gafsa is an archaeological museum located at (34.4161756, 8.7865704) in Gafsa, Tunisia. This archaeological museum showcases a collection of ancient artifacts and exhibits, offering insights into the rich history and cultural heritage of the region. Its main category is an archaeological museum, and it received a 4.3 rating based on 14 reviews.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+mT`m lkhym@ sydy bwzyd is a 5-star rated restaurant located in Gafsa, Tunisia. It is known for its delicious cuisine and friendly service. The restaurant is situated near the Institut superieur des etudes technologiques de Gafsa and is easily accessible by car, which is recommended, as public transportation may not be reliable in the area.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5535,12 +8312,73 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Restaurant, check out Grillade de viande et de poisson located at CQG6+RWM Grillade de viande et de poisson, Gafsa. This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>Grillade de viande et de poisson is a restaurant located in Gafsa, Tunisia. It offers a variety of grilled meat and fish dishes. The restaurant is highly rated by customers, with a 5.0 rating on Google Maps. It is located at the coordinates (34.4159879, 8.7920119).</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant (with a 5.0 rating) in gafsa that offers a rich selection of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Gafsa, taking in its picturesque shoreline and the stunning reflection of the surrounding landscape.
+Mid-Morning: Visit Musee archeologique de Gafsa, discovering the region's rich history through its collection of artifacts and exhibits.
+Midday: Indulge in local cuisine at Barbecue GAFSA, savoring delectable grilled meats and rice dishes.
+Afternoon: Immerse yourself in the local culture at Dar Loungou, offering glimpses into the region's heritage and history.
+Evening: Experience the vibrant ambiance of Dream Parc, enjoying delicious food, a cozy atmosphere, and friendly service.
+Night: Relax at Dar Seddik Residence d'Artistes, known for its comfortable accommodations and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+MaMa Pizza, located at Avenue Palestine Gafsa Sud, 2100, is a restaurant open 24/7. With a rating of 4.0 based on 2 reviews, this eatery offers a variety of dishes. Its precise location is at the coordinates (34.428025289113, 8.782860983013), placing it in the city of Gafsa.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5634,12 +8472,73 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out l'oasis located at CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/l%27oasis/data=!4m7!3m6!1s0x12f89756decdd965:0x6497df9fc03299dd!8m2!3d34.4309739!4d8.7524925!16s%2Fg%2F11rstclfbm!19sChIJZdnN3laX-BIR3ZkywJ_fl2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria with a 5.0 rating in Gafsa, offering a range of Pizzeria options in the l'oasis location?</t>
+          <t>Day Plan:
+Morning: Visit the Lac de Gafsa, a beautiful lake popular for swimming, fishing, and boating.
+Mid-Morning: Explore the Musée archéologique de Gafsa, which houses a wide range of exhibits, including mosaics, sculptures, and pottery.
+Midday: Try local cuisine at Restaurant Kerrou, highly rated for its delicious food and friendly service.
+Afternoon: Experience cultural immersion at La Grande Mosquée de Gafsa, known for its traditional Islamic architecture and intricate details.
+Evening: Head to TOMATO Pizzeria for delectable pizzas and a cozy atmosphere, based on its popular ratings.
+Night: Participate in an event or activity at Dream Parc, a highly-rated cafe, and grill restaurant offering a vibrant and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5737,12 +8636,74 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in gafsa, Gare ferroviaire Gafsa El Ksar is a top-rated destination for Gare lovers. Located at Gare ferroviaire Gafsa El Ksar mHT@ lqTr qfS@ lqSr, P15, Gafsa Gare, it boasts a 3.7 rating and offers a range of categories to choose from. For more information, visit their website at https://www.google.com/maps/place/Gare+ferroviaire+Gafsa+El+Ksar+%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%82%D8%B7%D8%A7%D8%B1+%D9%82%D9%81%D8%B5%D8%A9+%D8%A7%D9%84%D9%82%D8%B5%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f897bc9ece2d71:0x9d1ae20fd444ad12!8m2!3d34.3949346!4d8.8037717!16s%2Fg%2F1wb443nh!19sChIJcS3OnryX-BIREq1E1A_iGp0?authuser=0&amp;hl=fr&amp;rclk=1 or call for details.</t>
+          <t>**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Gafsa offers train enthusiasts a chance to explore its categories and is conveniently located at Gare ferroviaire Gafsa El Ksar mHT@ lqTr qfS@ lqSr, P15, Gafsa Gare?</t>
+          <t>Day Plan:
+Morning: Explore the Musée archéologique de Gafsa to delve into the region's rich history through its exhibits of mosaics, sculptures, and pottery.
+Mid-Morning: Visit Lac de Gafsa and immerse yourself in its tranquil atmosphere. Enjoy the picturesque shoreline and engage in peaceful activities like fishing, boating, or wildlife watching.
+Midday: Try local cuisine at Restaurant Kerrou, known for its delectable offerings and warm ambiance. Based on its positive reviews and strong local presence, you can expect an authentic and satisfying dining experience.
+Afternoon: Visit the Dar Seddik residence d'artistes, a highly-rated hotel that showcases comfortable rooms and delicious dining options. Take a stroll through its charming interiors and experience the blend of modern amenities with traditional aesthetics.
+Evening: Head to TOMATO Pizzeria, a popular pizzeria with a cozy atmosphere and delicious pizzas. Indulge in their specialties and enjoy a delightful culinary experience.
+Night: Relax at Dream Parc, a 5-star cafe and grill restaurant. Immerse yourself in its inviting ambiance and savor the delectable food while enjoying the friendly service.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5840,12 +8801,78 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a Station-service, check out Station service TOTAL located at CQF8+2PM Station service TOTAL, Gafsa 2100. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.3134278, 8.4913002.</t>
+          <t>Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated Station-service located at the coordinates 34.3134278, 8.4913002 in Gafsa?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical Dar Seddik Residence d'Artistes
+Mid-Morning:
+- Visit the Musée archéologique de Gafsa to learn about the region's rich past
+Midday:
+- Savory the local cuisine at the highly-rated Restaurant Kerrou
+Afternoon:
+- Relax and enjoy the serene beauty of Lac de Gafsa
+Evening:
+- Take a stroll through the historic Dar Loungou
+Night:
+- Experience the vibrant ambiance of La Grande Mosquée de Gafsa (Gafsa's Great Mosque)</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Restaurant Kerrou, located in gafsa (coordinates: 34.4159879, 8.7920119), is a highly rated establishment with a 4.5-star rating based on 2 reviews. Despite not having a website or featured image, this restaurant has a strong presence on Google Maps with a personalized link: https://www.google.com/maps/place/Restaurant+Kerrou/data=!4m7!3m6!1s0x12f897a910473c31:0x6ba0092e75ebfc8b!8m2!3d34.4280912!4d8.7621683!16s%2Fg%2F11tfhp1k_s!19sChIJMTxHEKmX-BIRi_zrdS4JoGs?authuser=0&amp;hl=fr&amp;rclk=1
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5943,12 +8970,78 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable gas station, look no further than Station service AGIL GAFSA ROUTE DE TOZEUR. Located at CQF7+34J Station service AGIL GAFSA ROUTE DE TOZEUR, P3, Gafsa, it offers top-notch services for all your fueling needs. The station has earned a 4.1-star rating, making it a must-visit spot for drivers in the area. To get there, simply follow the GPS coordinates: 34.4226775, 8.76276. If you have any questions or need further assistance, don't hesitate to call them at 76 229 243.</t>
+          <t>Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly-rated gas station, Station service AGIL GAFSA ROUTE DE TOZEUR, easily accessible with GPS coordinates and a phone number for assistance?</t>
+          <t>Day Plan:
+Morning:
+* Visit Dar kaabachi, a 5-star villa with stunning architecture and a rich history.
+Mid-Morning:
+* Explore the magnificent La Grande Mosque de Gafsa, an architectural masterpiece with intricate Islamic designs.
+Midday:
+* Indulge in authentic Tunisian cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated 5-star restaurant known for its delicious local dishes.
+Afternoon:
+* Embark on a guided tour of the Archaeological Museum of Gafsa, discovering the region's rich cultural past through its ancient artifacts and exhibits.
+Evening:
+* Stroll through the vibrant Oasis de Gafsa, an agricultural hub offering scenic views and a chance to experience the local culture.
+Night:
+* Enjoy a delightful dinner at Dream Parc, a 5-star cafe and grill restaurant with a cozy atmosphere and a tantalizing menu.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Grillade de viande et de poisson is a restaurant located in Gafsa, Tunisia. It offers a variety of grilled meat and fish dishes. The restaurant is highly rated by customers, with a 5.0 rating on Google Maps. It is located at the coordinates (34.4159879, 8.7920119).
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6046,12 +9139,78 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Station-service, look no further than Station Agil. Located at CQ8R+2WC Station Agil, P15, Gafsa, this must-visit spot boasts a rating of 4.3.</t>
+          <t>**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Station-service in Gafsa with a 4.3 rating located at CQ8R+2WC Station Agil, P15?</t>
+          <t>Day Plan:
+Morning: **Explore Lac de Gafsa**
+Start your day with a serene visit to Lac de Gafsa (coordinates: 34.5, 9.0), where you can relax by the picturesque shoreline and observe the local wildlife.
+Mid-Morning: **Visit Musee Archeologique de Gafsa**
+Immerse yourself in the rich history of Gafsa at Musee Archeologique de Gafsa (coordinates not provided), renowned for its impressive collection of ancient mosaics and artifacts.
+Midday: **Lunch at D'ma9+**
+Indulge in a delightful culinary experience at the highly-rated D'ma9+ restaurant (coordinates: 34.4159879, 8.7920119), conveniently located in the heart of Gafsa.
+Afternoon: **Explore Oasis de Gafsa**
+Escape the urban hustle and bustle with a visit to Oasis de Gafsa (coordinates: 9.9329491, 78.1344816), offering a tranquil retreat amidst nature's beauty.
+Evening: **Dinner at Spicy Burger**
+Satisfy your taste buds with a delicious burger at Spicy Burger (coordinates not provided), known for its delectable patties made with fresh, high-quality ingredients.
+Night: **Relax at Dar Seddik Residence d'Artistes**
+End your day with a restful stay at the highly-rated Dar Seddik Residence d'Artistes (coordinates: 34.3134278, 8.4913002), offering comfortable accommodations and a tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It's a popular tourist attraction and has received a 4.4 rating from visitors. The place is open from Monday to Friday from 8:30 AM to 2 PM and is closed on weekends. Dar Loungou has 18 reviews on Google.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6149,12 +9308,79 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you are in Gafsa looking for a reliable and convenient public transport option, check out Al Kawafil bus station. Located at station de bus Al Kawafil, Gafsa 2100, this well-rated destination is the perfect solution for your transportation needs. With a rating of 4.0, it's a must-visit spot for locals and tourists alike. For more details, visit their website at https://www.google.com/maps/place/station+de+bus+Al+Kawafil/data=!4m7!3m6!1s0x12f896ff0131ad69:0xeba1402c87f08373!8m2!3d34.4164574!4d8.7896869!16s%2Fg%2F1tlk3qqc!19sChIJaa0xAf-W-BIRc4PwhyxAoes?authuser=0&amp;hl=fr&amp;rclk=1 or call them at To get there, use these GPS coordinates: 34.3134278, 8.4913002.</t>
+          <t>The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>What is the exceptional public transport destination in Gafsa with high ratings, located at station de bus Al Kawafil?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Musée Archéologique de Gafsa, showcasing a captivating collection of ancient mosaics.
+**Mid-Morning:**
+- Visit Lac de Gafsa, a serene lake offering picturesque shoreline, fishing, and wildlife viewing.
+**Midday:**
+- Indulge in local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy," a highly-rated Tunisian restaurant.
+**Afternoon:**
+- Enjoy scenic views at Montagne El Mida, a mountain peak offering stunning panoramas.
+**Evening:**
+- Engage in cultural immersion at Dar Loungou, a historical site providing a glimpse into the region's rich history.
+**Night:**
+- Relax at Dream Parc, a 5-star cafe and grill restaurant offering a cozy atmosphere and delectable dining options.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Fricasse HAMMA is a restaurant located in Gafsa, Tunisia. It offers a variety of dishes, and is open from 7am to 8pm. The restaurant has a rating of 4.3 out of 5 stars, and is located at the coordinates (34.4159879, 8.7920119).
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6252,12 +9478,80 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable transportation service, station de transport terrestre Gafsa is a top-rated destination. Located at CQ8R+J3V station de transport terrestre Gafsa, Ctre, Gafsa, this service provider offers a range of options for all your transportation needs. With a rating of 2.7, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 34.4159879, 8.7920119.</t>
+          <t>The station de transport terrestre Gafsa is a transportation hub located in the heart of Gafsa, Tunisia. It is a central hub for buses, offering passengers connections to destinations throughout the country. The station is conveniently located near the city center, making it easy for travelers to access. It serves as a convenient starting point for exploring the region and provides travelers with access to various transportation options.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a high-rated transportation service with GPS coordinates 34.4159879, 8.7920119?</t>
+          <t>Day Plan:
+Morning:
+- Exploring the historical Le Bassin Romain
+- Taking a guided tour of the Musée archéologique de Gafsa
+Mid-Morning:
+- Trying local cuisine at the highly-rated D'ma9+ restaurant
+Midday:
+- Visiting the scenic Lac de Gafsa
+Afternoon:
+- Enjoying a relaxing spa treatment at dar seddik residence d artistes
+Evening:
+- Participating in a cultural event at the Grande Mosquée de Gafsa
+Night:
+- Experiencing the vibrant atmosphere at Club Bayech</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Discover the delights of D'ma9+, a highly-rated (5.0/5) restaurant conveniently located in gafsa at CQCR+QF6. Open 24/7, D'ma9+ offers a delectable culinary experience in the heart of gafsa. Its precise geolocation is 34.4159879, 8.7920119, making it easily accessible.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6355,12 +9649,73 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for transportation services, check out Station de bus SRTG located at CQ8Q+HV8 Station de bus SRTG, Gafsa. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, call them at 53 007 814.</t>
+          <t>The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>What top-rated transportation hub with GPS coordinates 34.4159879, 8.7920119 can be found in Gafsa, featuring a variety of services?</t>
+          <t>Day Plan:
+Morning: Explore the Musée archéologique de Gafsa, offering exhibits on the region's history.
+Mid-Morning: Visit the La Grande Mosquée de Gafsa, a stunning example of Islamic architecture.
+Midday: Try local cuisine at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", known for its authentic Tunisian flavors.
+Afternoon: Relax with a refreshing swim and scenic views at Lac de Gafsa.
+Evening: Enjoy live music and vibrant atmosphere at Club Bayech, a popular bar.
+Night: Experience cultural immersion at Fricasse/Metabga chez Ibrahim Bendhaher, showcasing traditional Gafsa cuisine and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Desparados is a highly rated restaurant located in Gafsa, operating from 10:00 to 20:00 during weekdays and remaining closed on Sundays. With 27 reviews, Desparados has garnered a solid 4.0 rating.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6454,12 +9809,73 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Station de taxis, check out Station de Taxis Gafsa II located at CQCQ+679 Station de Taxis Gafsa II, Ctre, Gafsa. This destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 34.4181328, 8.789575.</t>
+          <t>The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi station with a variety of options in the Gafsa area?</t>
+          <t>Day Plan:
+Morning: Explore the Musée archéologique de Gafsa to gain insights into the region's history and culture.
+Mid-Morning: Take a guided tour of Le Bassin Romain, an ancient Roman site offering a glimpse into the past.
+Midday: Indulge in a delightful Tunisian meal at "mTbq@ qfSy@ `lmy@ `nd `m lnjy", savoring the authentic flavors and ambiance.
+Afternoon: Visit the Dar kaabachi villa, a stunning architectural landmark that showcases the region's heritage.
+Evening: Embark on a scenic boat ride at Lac de Gafsa, taking in the tranquil waters and panoramic views.
+Night: Enjoy a relaxing and rejuvenating experience at Dream Parc, a charming cafe and grill where you can unwind with delicious food and a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes in Gafsa, Tunisia (34.3134278, 8.4913002), is a highly rated (4.7 stars based on 35 reviews) hotel located in the Oasis district. It features comfortable rooms and a cozy ambiance, and is a popular destination for tourists and locals alike seeking a peaceful retreat.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It offers visitors a glimpse into the past, with its well-preserved Roman ruins. The site is open 24 hours a day, making it a convenient destination for tourists. Le Bassin Romain is located at coordinates (34.417313800591, 8.785810776674) and is easily accessible by car or public transportation.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service TOTAL is a gas station located in gafsa, Tunisia at the coordinates (34.3134278, 8.4913002). It has a rating of 3.8 out of 5 based on 16 reviews. It is part of the main category of gas stations and has no other categories listed. It has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPiL7nuw47yD4HoyaRDG_HdIj4FuP2HJmnspw07=w408-h544-k-no and is owned by a user with id 'None' and name 'Station service TOTAL (proprietaire)'. No link to the owner is provided. It has no website or phone number listed. The workdays and closed days are not available, nor are the review keywords.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6565,14 +9981,79 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a convenient stop, check out Station Shell. 
-This top-rated destination is the perfect spot for Station-service enthusiasts and offers a range of services to choose from, including a car wash and a convenience store. 
-With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 34.3134278, 8.4913002. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044770-gafsa-iii or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination offering various services like car wash and convenience store, with a 4.7 rating and 24-hour accessibility in Gafsa?</t>
+          <t>Day Plan:
+**Morning:**
+* Exploring Musée archéologique de Gafsa to delve into the rich history of the city
+**Mid-Morning:**
+* Visiting Le Bassin Romain, a historical site that offers a glimpse into Gafsa's past
+**Midday:**
+* Trying local cuisine at TOMATO Pizzeria, a popular pizzeria known for its delicious pizzas
+**Afternoon:**
+* Shopping for souvenirs and local goods at the vibrant market in the heart of Gafsa
+**Evening:**
+* Relaxing with a soothing and rejuvenating spa treatment at Dar Seddik Residence d'Artistes
+**Night:**
+* Experiencing the lively atmosphere of Club Bayech, a highly-rated bar with great ambiance</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is a highly-rated hotel situated in the oasis of Gafsa, featuring 35 positive reviews by guests. With a 4.7-star rating, it offers a comfortable stay, situated at the coordinates (34.3134278, 8.4913002). While the website and further amenities are not specified, the residence is easily accessible via phone at 21 171 717. The Facebook page managed by the owner is linked. Perfect for travelers seeking a pleasant accommodation in the Gafsa region, Dar Seddik Residence d'Artistes awaits your visit.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station service AGIL GAFSA ROUTE DE TOZEUR is a gas station situated in gafsa, Tunisia, at coordinates (34.4226775, 8.76276). It receives an average of 4.1 out of 5 rating, and provides phone support at 76 229 243.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6666,12 +10147,73 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for something fun to do, check out Station de Bus located at Station de Bus, Gafsa. This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.3336007, 8.9467974. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus/data=!4m7!3m6!1s0x12f89655631b7391:0x6531b13cbc4399b!8m2!3d34.415382!4d8.7923773!16s%2Fg%2F1v2g9zrf!19sChIJkXMbY1WW-BIRmznEyxMbUwY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a top-rated destination with a 4.0 rating, offering a variety of attractions for Arret de transports en commun enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Dar Loungou to gain insights into the region's rich past.
+Mid-Morning: Take a leisurely stroll through Lac de Gafsa, admiring its picturesque shoreline and tranquil atmosphere.
+Midday: Indulge in a delightful lunch at the highly-rated CAFE'IN, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Visit the Musée archéologique de Gafsa to delve into the area's archaeological heritage, admiring its captivating exhibits.
+Evening: Ascend Montagne El Mida for breathtaking panoramic views of the surrounding landscape.
+Night: Experience the vibrant atmosphere of Dream Parc, enjoying its cozy ambiance, delicious food, and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Dar Seddik Residence d'Artistes is an exclusive hotel located in Gafsa, Tunisia, with an impressive 4.7 rating. The hotel offers a serene and refined ambiance, featuring elegant rooms and exquisite dining experiences. Dar Seddik's location allows for easy access to the city's attractions and landmarks, providing a perfect base for exploring the region.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Dar Loungou is a historical place located in Gafsa, Tunisia. It offers visitors a glimpse into the rich history of the region. The site is open daily from 8:30 AM to 2:00 PM, except on Saturdays and Sundays. For more information, please visit the website or call 96 710 906.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+The Musée archéologique de Gafsa is a museum located in Gafsa, Tunisia. It is located at latitude 34.4161756 and longitude 8.7865704. The museum offers a wide range of exhibits, including mosaics, sculptures, and pottery. It also offers a variety of educational programs for visitors of all ages.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Bubble waffle is a restaurant located in gafsa, Tunisia. It is rated 5.0 stars and has 2 reviews. It offers a variety of dishes and is open from 09:30 to 22:00. The restaurant is located at CQMJ+6GQ and can be contacted at 23 930 291.
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+**Station Agil** is a service station located in gafsa,Tunisia. It offers a wide range of services for vehicles, including fuel, repairs, and maintenance. The station is conveniently located at (34.4159879, 8.7920119), making it easy to access for drivers. Station Agil is highly rated by customers, with an average rating of 4.3 out of 5 stars.
+The Al Kawafil bus station is located in Gafsa, Tunisia, at coordinates (34.3134278, 8.4913002). It offers transportation services to various destinations. With a rating of 4.0, it is a reliable option for travelers seeking convenient and efficient transportation in the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6765,14 +10307,73 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a reliable gas station, check out Station de Taxis Gafsa 3 located at CQCQ+222 Station de Taxis Gafsa 3, Ctre, Gafsa. 
-This top-rated destination is perfect for fueling up your vehicle and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot for drivers. It's open during these hours: [workday_timing], but closed on [closed_on]. To get there, use these GPS coordinates: 34.4181328, 8.789575. For more details, visit their website at [website] or call them at [phone].</t>
+          <t>Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station with a range of services in Gafsa, known for its 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Gafsa, admiring its picturesque shoreline and serene beauty while enjoying opportunities for fishing, boating, or wildlife watching.
+Mid-Morning: Visit the Musee archeologique de Gafsa, embarking on a captivating journey into the region's rich history through its impressive collection of artifacts and exhibits, including ancient mosaics.
+Midday: Satisfy your culinary cravings by trying local cuisine at the highly-rated Dr. LHwt seafood market, offering a diverse array of fresh seafood products.
+Afternoon: Immerse yourself in cultural heritage by visiting Le Bassin Romain, a historical site that provides a glimpse into the city's past, showcasing its historical significance and beauty.
+Evening: Head to the popular pizzeria TOMATO to savor its delectable pizzas and other offerings in a cozy atmosphere.
+Night: Experience cultural immersion by attending a gathering or event at La Grande Mosquée de Gafsa, a renowned monument and place of worship known for its traditional Islamic architecture and intricate details.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Minima Coffee Shop is a cafe located in Gafsa, Tunisia. It has a 4.2 rating based on 14 reviews and is open from 8 AM to 10 PM every day except Sunday. The cafe offers a variety of coffee drinks, as well as pastries and other snacks. It is located at the coordinates 34.4159879, 8.7920119.
+Experience a peaceful oasis at dar seddik residence d artistes, nestled in the heart of Gafsa. This charming hotel offers a delightful stay with pristine rooms and a warm, hospitable atmosphere. Situated conveniently with easy access to local attractions, dar seddik residence d artistes boasts a remarkable rating of 4.7, a testament to its exceptional hospitality.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Nestled in the heart of Gafsa, Lac de Gafsa beckons visitors with its serene beauty. Boasting a picturesque shoreline, this lake is a haven for nature enthusiasts, offering opportunities for fishing, boating, and wildlife watching. Its crystal-clear waters reflect the surrounding landscape, creating a tranquil atmosphere that invites relaxation and contemplation. Situated at coordinates (34.5, 9.0), Lac de Gafsa is a beloved destination for locals and tourists alike.
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Fricasse HAMMA is a restaurant located in Gafsa, Tunisia. It offers a variety of dishes, and is open from 7am to 8pm. The restaurant has a rating of 4.3 out of 5 stars, and is located at the coordinates (34.4159879, 8.7920119).
+**TOMATO Pizzeria**
+Located in the heart of Gafsa (34.4159879, 8.7920119), TOMATO is a popular pizzeria known for its delicious pizzas. With a 4.5-star rating based on 25 reviews, it's a favorite among locals and tourists alike. Enjoy their delectable pizzas and other offerings in a cozy atmosphere.
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station de Taxis Gafsa 3 is a gas station located in Gafsa, Tunisia. It offers fuel services and is open 24/7. The station is conveniently located near major roads and offers a variety of services to travelers, including a convenience store, restrooms, and a tire repair shop.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6874,12 +10475,72 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in gafsa and looking for a top-rated Service de location d'autobus, check out Station Louage OMlarayis-GAFSA located at F7R8+9RH Station Louage OMlarayis-GAFSA, Umm Al Arais. This destination is perfect for Service de location d'autobus lovers. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.4888, 8.26874. For more details, call them at 92 500 056.</t>
+          <t>Station Louage OMlarayis-GAFSA is a bus rental service located in Umm Al Arais, Gafsa, Tunisia. It offers bus rental services for various purposes.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Gafsa can you find a highly-rated Service de location d'autobus destination with a 2.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Le Bassin Romain, a historical site showcasing the city's past.
+Mid-Morning: Visit the Musee archeologique de Gafsa, an Archaeological Museum that houses the region's rich history, including ancient mosaics.
+Midday: Indulge in local cuisine at Pizzeria Pasta Bella, a 5-star rated restaurant specializing in pizzas and pastas.
+Afternoon: Immerse yourself in culture at La Grande Mosquée de Gafsa, a renowned architectural marvel with vast prayer halls and an impressive minaret.
+Evening: Relax at Dream Parc, a cafe and grill offering a cozy atmosphere, delicious food, and a friendly staff.
+Night: Engage in outdoor activities at Oasis de Gafsa, a popular agricultural place with beautiful views and attractions.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE'IN is a highly-rated cafe located in Gafsa, Tunisia, offering a satisfying experience to its patrons. Its precise location is marked by the coordinates (36.7024237, 10.2398348), making it easily accessible. While specific details about its offerings and amenities are not available, its overall rating of 5.0 out of 5 stars based on three reviews suggests a high level of customer satisfaction.
+Cafe Marrakech is a 5-star rated cafe located in Gafsa, Tunisia (coordinates: 34.3114341, 8.4216957). It is open from 5 AM to midnight every day and offers a variety of food and drinks. The cafe is known for its friendly staff and welcoming atmosphere.
+Dar Seddik residence d'artistes is a 4.7-rated hotel located in Gafsa, Tunisia. It features 35 reviews and is known for its comfortable rooms and delicious dining options. The hotel is located near the city center and offers easy access to local attractions.
+Dar kaabachi is a 5-star villa located in Gafsa, Tunisia. The exact address is 1, Dar kaabachi, Zarroug amel, Gafsa. Its coordinates are (34.4159879, 8.7920119).
+Lac de Gafsa is a beautiful lake located in Gafsa, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of activities such as swimming, fishing, and boating. The lake is also home to a variety of wildlife, including birds, fish, and turtles. The Lac de Gafsa is located at (34.5, 9.0).
+Dr. LHwt is a seafood market located in Gafsa, Tunisia, at the coordinates (34.4159879, 8.7920119). It is open 24 hours a day and offers a wide variety of fresh seafood products. The market is highly rated by customers, with an average rating of 5.0 out of 5.0.
+Le Bassin Romain is a historical site located in Gafsa, Tunisia. It is open 24 hours a day and offers visitors a glimpse into the city's past. The site is rated 4.2 by visitors, with many praising its historical significance and beauty. The Bassin Romain is easily accessible, located at CQ8P+7QM Le Bassin Romain, Av. Habib Bourguiba, Gafsa.
+La Grande Mosquée de Gafsa est un lieu de culte et un monument historique situé à gafsa, en Tunisie. Elle est réputée pour son architecture islamique traditionnelle et ses finitions complexes. Les visiteurs peuvent admirer ses vastes salles de prière, sa cour centrale paisible et son minaret imposant. La mosquée est également un lieu actif de la communauté locale, accueillant des événements religieux, des rassemblements communautaires et des séances d'éducation.
+Located in Gafsa, Tunisia, Musee archeologique de Gafsa is a renowned Archaeological Museum. Showcasing a collection of artifacts and exhibits that delve into the region's rich history, the museum is known for its impressive collection of ancient mosaics. With 4.3-star ratings and 14 reviews, the museum offers a captivating journey into the past, providing visitors with an enriching experience.
+Oasis de Gafsa is a popular agricultural place located in gafsa. It has been rated 4.6 out of 5 by its visitors. The oasis is easily accessible via Google Maps and offers a variety of attractions for visitors to enjoy. Coordinates of the Oasis de Gafsa are (9.9329491, 78.1344816).
+The **Montagne El Mida** is a mountain peak located in Gafsa, Tunisia, with coordinates (34.4159879, 8.7920119). It is a popular destination for hikers and nature enthusiasts, offering stunning views of the surrounding area.
+Club Bayech is a bar, located in gafsa (34.4159879, 8.7920119) with a great rating of 4.1 stars based on 9 reviews.
+Pizzeria Pasta Bella is a 5-star rated restaurant located at coordinates (34.4159879, 8.7920119) in Gafsa, Tunisia (Unnamed Road, CQH4+Q4M). It specializes in pizzas and pastas, and its featured image shows a mouthwatering pizza. The restaurant has 2 reviews, and it can be contacted at the phone number 99 803 444. However, information about its website, description, owner, workdays timing, closed days, and review keywords is currently unavailable.
+l'oasis is a Pizzeria in gafsa rated 5.0/5  located in CQJ2+9XQ l'oasis, Avenue Ahmed Zarrouk, Gafsa, GPS coordinates (34.428041394002, 8.756047778438).
+SoCrunchy is a highly-rated (4.4/5) creperie located in Gafsa, Tunisia (coordinates: 34.4159879, 8.7920119). It is open from 8 am to 10 pm and offers a wide variety of crepes, both sweet and savory.
+Spicy Burger is a popular hamburger restaurant in Gafsa, Tunisia. It is known for its delicious burgers, which are made with fresh, high-quality ingredients. The restaurant is located at CQCM+XV9 Spicy Burger, Gafsa, and is open from 11:00 AM to 11:00 PM. It has received rave reviews from customers, who praise the burgers and the friendly service.
+Located at (lat: 34.3134278, lon: 8.4913002) in Gafsa, Barbecue GAFSA is a highly-rated (5.0/5) restaurant open 24/7. This restaurant specializes in grilled meats and rice dishes, making it an ideal spot for those seeking delectable culinary options.
+Fricasse/Metabga chez Ibrahim Bendhaher is the best place to have breakfast with a rating of 5.0 and 3 reviews. It is located on Place Pasteur, Doualy, Gafsa and has a phone number of 20 787 132. The coordinates are (34.4159879, 8.7920119).
+**tarkina** is a fast food establishment located in Gafsa, Tunisia at the coordinates (34.4159879, 8.7920119). The establishment offers a variety of fast food options and has a rating of 4.3 out of 5 stars based on 3 reviews.
+"mTbq@ qfSy@ `lmy@ `nd `m lnjy" is a 5-star rated Tunisian restaurant located in Gafsa, Tunisia. It is located at coordinates (34.4159879, 8.7920119) with an operating time from 10:00 AM to 10:00 PM, and is known for its delicious Tunisian cuisine.
+Dream Parc is a 5-star cafe and grill restaurant located in gafsa (Tunisia), with the coordinates (34.4159879, 8.7920119). It is open from 7 am to 11 pm, and it offers its customers a wide range of services such as a cozy atmosphere, delicious food, and a friendly staff. The restaurant's featured image showcases a vibrant and inviting ambiance. Dream Parc is a popular destination for locals and tourists alike, and it is highly recommended for anyone looking for a great dining experience.
+**Gare ferroviaire Gafsa El Ksar**
+Located in Gafsa Gare (coordinates: 34.4044368, 8.7996753), this railway station provides convenient transportation services. Highly rated by travelers (3.7 stars), it features 26 reviews and a featured image showcasing its facade. Explore this station for efficient and reliable rail travel in the region.
+Station Shell is a gas station located at coordinates (34.3134278, 8.4913002) in Gafsa, Tunisia. It offers 24-hour service, a car wash, and a convenience store. The station has received positive reviews, with an average rating of 4.7 out of 5.
+Station de Bus in Gafsa is a convenient transportation hub with a 4.0-star rating. It is located at the coordinates (34.3336007, 8.9467974), making it easily accessible to commuters and travelers. While there is limited information available about the specific services offered at the station, it serves as a primary departure and arrival point for bus services within the region.
+The SRTG bus station in Gafsa, Tunisia, is a convenient transportation hub. Located at coordinates (34.4159879, 8.7920119), it offers easy access to a range of destinations. The station has a rating of 3.8 based on 5 reviews, indicating a generally positive experience for travelers.
+The Station de Taxis Gafsa II is located in gafsa with coordinates (34.4181328, 8.789575). This business is rated 3.3 out of 5 stars. It offers taxi services and is owned by Station de Taxis Gafsa II (proprietaire).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
